--- a/data/trans_orig/LAWTONBRODY-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONBRODY-Provincia-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>6.382323965986682</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.341465409440257</v>
+        <v>6.341465409440258</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>7.106783055679253</v>
@@ -681,7 +681,7 @@
         <v>5.624161581538483</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>5.687528803961163</v>
+        <v>5.687528803961164</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>7.110451255480628</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.275518356634921</v>
+        <v>6.167365141587447</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.953612140774564</v>
+        <v>5.942669408243734</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.384713759237849</v>
+        <v>5.323727750792175</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.811621703770749</v>
+        <v>5.778157575692292</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.277112044330676</v>
+        <v>6.205672672221295</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.288917323331056</v>
+        <v>4.29072886816694</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.75533955032388</v>
+        <v>4.680113955626798</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.132872662325233</v>
+        <v>5.136605047753403</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.513600126757383</v>
+        <v>6.59715699249337</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5.313840037283983</v>
+        <v>5.28708610950522</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5.242813425027233</v>
+        <v>5.226657089302645</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>5.583219069266227</v>
+        <v>5.579339982984176</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.639627726943502</v>
+        <v>7.598050949552144</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.313849183522914</v>
+        <v>7.309846497051203</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.193600439884789</v>
+        <v>7.135107157583858</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.799046107826749</v>
+        <v>6.821833675656826</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.628232636561325</v>
+        <v>7.567667301613159</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.870877309915079</v>
+        <v>5.887039672817076</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.462765348972081</v>
+        <v>6.443471329548246</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.156334939588755</v>
+        <v>6.179754465937695</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.474476764414216</v>
+        <v>7.486793459736782</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6.433647289439844</v>
+        <v>6.453748431643701</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6.480422347972907</v>
+        <v>6.488718447539438</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>6.347850623924836</v>
+        <v>6.342011864030405</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>7.428788184246099</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.157053702436717</v>
+        <v>7.157053702436718</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>7.022194626345584</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.822634693815314</v>
+        <v>6.79197844957421</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.425992700978645</v>
+        <v>5.37012264618241</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.082646555501954</v>
+        <v>7.091641138989853</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.618614377711035</v>
+        <v>6.617135774915694</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>6.463944020513073</v>
+        <v>6.491522843054139</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>5.328731114580038</v>
+        <v>5.282915622153673</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>5.974911272993453</v>
+        <v>6.008686633715806</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>5.307255223011093</v>
+        <v>5.283401728294129</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>6.780404788114089</v>
+        <v>6.795816521197514</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5.537230608125075</v>
+        <v>5.569704230157173</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6.583933110005291</v>
+        <v>6.580229843580134</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>5.918312205809351</v>
+        <v>5.936845133220261</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.577086449817794</v>
+        <v>7.604691069669269</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.997179730893423</v>
+        <v>6.977834255597443</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.681214017489338</v>
+        <v>7.677035516360805</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.529109859515029</v>
+        <v>7.507143626250341</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.394660180956206</v>
+        <v>7.414641944258237</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>6.491567712239953</v>
+        <v>6.510206209400524</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>7.007843102681121</v>
+        <v>6.988377562364704</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>6.140811958806595</v>
+        <v>6.16148638110218</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>7.389189737994972</v>
+        <v>7.391074822038427</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6.560618015802509</v>
+        <v>6.564326221307921</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7.266433983781141</v>
+        <v>7.220321591147232</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>6.607797279557669</v>
+        <v>6.600601791074602</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>7.228593480359962</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.339127533768563</v>
+        <v>6.339127533768564</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>6.602186513776785</v>
@@ -953,7 +953,7 @@
         <v>7.190920749483345</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>5.891782171691835</v>
+        <v>5.891782171691834</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>6.88718473618131</v>
@@ -965,7 +965,7 @@
         <v>7.207486142952652</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>6.094813396638336</v>
+        <v>6.094813396638335</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.67451560416358</v>
+        <v>6.700702342991598</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.650136017605804</v>
+        <v>5.649681008128566</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.579128785805418</v>
+        <v>6.628185145717165</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.844136677556818</v>
+        <v>5.726314546935744</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6.072430943239592</v>
+        <v>5.98972655741824</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.224463053693923</v>
+        <v>5.096319236247218</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.475732305425125</v>
+        <v>6.477856065030152</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>5.435629070192127</v>
+        <v>5.425970004852239</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.483311560042019</v>
+        <v>6.440197491648915</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5.682126080938612</v>
+        <v>5.671748983436946</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6.734538701392376</v>
+        <v>6.745727374218423</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>5.772630226434076</v>
+        <v>5.748699427849276</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.681151027649727</v>
+        <v>7.658669627374837</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.21748050564151</v>
+        <v>7.196503868775799</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.547538896021363</v>
+        <v>7.544989166272172</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.821292533853031</v>
+        <v>6.763867130528261</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.019233734765683</v>
+        <v>7.019202832401354</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.744968860835695</v>
+        <v>6.65724260207813</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.612418326160956</v>
+        <v>7.611034370099226</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.270352572515727</v>
+        <v>6.285794869581948</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.214663916022323</v>
+        <v>7.178610123366242</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6.757290877878895</v>
+        <v>6.749205881896227</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7.489163051239315</v>
+        <v>7.500145140927645</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>6.399378246376028</v>
+        <v>6.361485618150629</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>7.159359371477346</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.898893547584459</v>
+        <v>6.898893547584461</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>6.625700523593339</v>
@@ -1101,7 +1101,7 @@
         <v>6.961353411800435</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>6.667773293387188</v>
+        <v>6.66777329338719</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.733806247650515</v>
+        <v>6.682567417576056</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.900456850946507</v>
+        <v>5.933962906160402</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.601821647608878</v>
+        <v>6.623384885728525</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.429629349216297</v>
+        <v>6.414764264866854</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>6.105335538292776</v>
+        <v>6.080793838108471</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>5.599170863353994</v>
+        <v>5.577354983350508</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>6.157164458199623</v>
+        <v>6.151075186915286</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>6.164514272824022</v>
+        <v>6.170594962440168</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>6.53182467274907</v>
+        <v>6.528729396887521</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5.912067307670012</v>
+        <v>5.895622723005039</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6.535558037419491</v>
+        <v>6.53221362058486</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.400298538099904</v>
+        <v>6.374690247774629</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.61292763862755</v>
+        <v>7.595740202834114</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.147534569628523</v>
+        <v>7.139105574333646</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.486754020790361</v>
+        <v>7.508765387994367</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.287361709350999</v>
+        <v>7.270723476275123</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.041013585952973</v>
+        <v>7.031879617650088</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>6.676878605945435</v>
+        <v>6.630513363144837</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>7.270357460301499</v>
+        <v>7.257703121654332</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>6.797407198669271</v>
+        <v>6.814608525971274</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>7.177609007901703</v>
+        <v>7.194782736404388</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6.737898074814455</v>
+        <v>6.733495273069884</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7.291822961086049</v>
+        <v>7.274660036790843</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>6.918242593754289</v>
+        <v>6.906684565735666</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>6.693603726982538</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>6.468521695755781</v>
+        <v>6.468521695755783</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.795975982370956</v>
+        <v>4.734920881852899</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.447362268200532</v>
+        <v>5.321727988237491</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.919622402705755</v>
+        <v>6.840586297559628</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.952641409766548</v>
+        <v>5.931918827713276</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.196309224598418</v>
+        <v>5.170366717303051</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.215174943811838</v>
+        <v>5.188992967166957</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>5.334677070511678</v>
+        <v>5.217076520622919</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>5.82550207924405</v>
+        <v>5.837371430630584</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.342807336270669</v>
+        <v>5.382165245026905</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5.538895025908711</v>
+        <v>5.606003324601359</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6.206160661696144</v>
+        <v>6.162283038809359</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>6.059927485285136</v>
+        <v>6.067633284527269</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.986846123030807</v>
+        <v>6.958519252874831</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.406368173571198</v>
+        <v>7.401709073814554</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.815666922270973</v>
+        <v>7.789732850135501</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.172425520571632</v>
+        <v>7.159750851232094</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.89673839773046</v>
+        <v>6.845187430643229</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.736909901948967</v>
+        <v>6.779970401351225</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.797064214410153</v>
+        <v>6.73276130852228</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.821901892653178</v>
+        <v>6.829841668865404</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.747596291082712</v>
+        <v>6.744041405494919</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.795088120424483</v>
+        <v>6.746840388025377</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7.149299484767467</v>
+        <v>7.115691254987167</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>6.805060045033788</v>
+        <v>6.792490117859908</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>6.485801944368622</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>5.543123800230821</v>
+        <v>5.54312380023082</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>6.77669581720783</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.006602465283459</v>
+        <v>6.022254664332416</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>5.501033079316171</v>
+        <v>5.521221269295348</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.637523388754796</v>
+        <v>5.667631202695624</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5.765799546790998</v>
+        <v>5.760906192763218</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>6.24210095371188</v>
+        <v>6.242703058002404</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>5.456320187523573</v>
+        <v>5.449846844299672</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>5.682901604151937</v>
+        <v>5.62860116983841</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>5.05587113533308</v>
+        <v>5.089719215174227</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>6.385387565153762</v>
+        <v>6.354115516480352</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5.695922244877666</v>
+        <v>5.692852349765196</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5.965157334734218</v>
+        <v>5.935545731185957</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>5.557448643973266</v>
+        <v>5.571720524542345</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.153646857199189</v>
+        <v>7.184084862092672</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.92286531421537</v>
+        <v>6.882104587753655</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.0974218625016</v>
+        <v>7.019676527826351</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.670169692706412</v>
+        <v>6.614041397586401</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>7.281796637652011</v>
+        <v>7.293312741806538</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>6.930134633938523</v>
+        <v>6.79906750543689</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>7.066302769521433</v>
+        <v>7.023659274648429</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>5.944781601964221</v>
+        <v>5.952800669704555</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>7.121660416416673</v>
+        <v>7.138425936453254</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6.711128088532162</v>
+        <v>6.707266788208641</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6.895023371586363</v>
+        <v>6.886409787671462</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>6.161791136250892</v>
+        <v>6.167990738571445</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>7.01545403435444</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.389931739698764</v>
+        <v>7.389931739698762</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>6.959322785516392</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.992584982613018</v>
+        <v>6.948749130724578</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.288035474648078</v>
+        <v>6.330704210942335</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.577125686873367</v>
+        <v>6.588141593414351</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7.073736024287764</v>
+        <v>7.101263667135496</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>6.55367318357917</v>
+        <v>6.50738643693044</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.84843831038982</v>
+        <v>5.911838570102533</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>5.764562080091133</v>
+        <v>5.729071161566557</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>6.025532533466958</v>
+        <v>6.056833234771117</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>6.896767786941688</v>
+        <v>6.872190673055473</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6.247847620492269</v>
+        <v>6.23457024501695</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6.184187340370281</v>
+        <v>6.210553756587306</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>6.646709525387776</v>
+        <v>6.660355672478192</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.625858276646804</v>
+        <v>7.629795356178049</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.191289247272802</v>
+        <v>7.215655959611513</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.353258871465167</v>
+        <v>7.336259854906086</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.590902343565805</v>
+        <v>7.616177580010513</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.281194905477519</v>
+        <v>7.233382411360575</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.803297019555622</v>
+        <v>6.844251609981295</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.663126613188265</v>
+        <v>6.718888934396621</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.697268861580289</v>
+        <v>6.700360502676088</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.39417679305342</v>
+        <v>7.357441893403322</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6.890482220763231</v>
+        <v>6.906953734153803</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6.854634949699888</v>
+        <v>6.849457031403959</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>7.077906562797105</v>
+        <v>7.076335295726973</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>7.365835043770115</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7.529999542727459</v>
+        <v>7.52999954272746</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>6.672417545384287</v>
@@ -1633,7 +1633,7 @@
         <v>7.0027599132303</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>6.670815030479235</v>
+        <v>6.670815030479233</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>6.79194124385641</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>6.562547621108932</v>
+        <v>6.55928523067762</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>6.889829339456524</v>
+        <v>6.803323264145798</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7.09365630135565</v>
+        <v>7.057296165631454</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7.31897871747855</v>
+        <v>7.320234510215749</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>6.2050140704915</v>
+        <v>6.211660471057688</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>6.405764802350507</v>
+        <v>6.35977255159221</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>6.62870402447609</v>
+        <v>6.600855017178517</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>6.414266363913523</v>
+        <v>6.407772776535969</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>6.484894941862827</v>
+        <v>6.496562689493003</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6.698153855774009</v>
+        <v>6.711700484591762</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6.920648621573743</v>
+        <v>6.920822760550599</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>6.847159160051</v>
+        <v>6.858145398600565</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.277182657816289</v>
+        <v>7.235005737507126</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.626949216566615</v>
+        <v>7.603768039643851</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.5846401322903</v>
+        <v>7.578936007014629</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.683814669639544</v>
+        <v>7.679713338818134</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>7.066870225110845</v>
+        <v>7.059368667359365</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>7.090354085869484</v>
+        <v>7.089942605672352</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>7.268777653520031</v>
+        <v>7.268944867147296</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>6.897416803009191</v>
+        <v>6.894663247532316</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>7.052764933242257</v>
+        <v>7.093502732684567</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>7.229291050908046</v>
+        <v>7.233327397678842</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7.345725672694539</v>
+        <v>7.34939295061278</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>7.190881926951674</v>
+        <v>7.199905249207555</v>
       </c>
     </row>
     <row r="28">
@@ -1757,7 +1757,7 @@
         <v>7.140241043362948</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7.00178788220316</v>
+        <v>7.001787882203161</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>6.77032590222096</v>
@@ -1769,7 +1769,7 @@
         <v>6.5995494712418</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>6.214887074623242</v>
+        <v>6.214887074623241</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>6.910563450043422</v>
@@ -1781,7 +1781,7 @@
         <v>6.833517160263962</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>6.563050952957235</v>
+        <v>6.563050952957236</v>
       </c>
     </row>
     <row r="29">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>6.920300501841984</v>
+        <v>6.921834965892019</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.507527577340699</v>
+        <v>6.496929798082591</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6.9723589641269</v>
+        <v>6.987010557541403</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.861457433317761</v>
+        <v>6.871284285743648</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>6.596490902418055</v>
+        <v>6.584116242425157</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.016779445333118</v>
+        <v>6.005919774520363</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>6.406761147305667</v>
+        <v>6.385641150376744</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>6.071840691696866</v>
+        <v>6.072880851685341</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.785330253994569</v>
+        <v>6.779519808285861</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6.279036875928104</v>
+        <v>6.295198557892255</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6.712155898032353</v>
+        <v>6.699099403102519</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>6.466029149270624</v>
+        <v>6.467155955475945</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.260481028031231</v>
+        <v>7.255228237955756</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.935394011467467</v>
+        <v>6.936997267089422</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.287453239213942</v>
+        <v>7.272845838010008</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.126831894986861</v>
+        <v>7.125174978061825</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.941260349355099</v>
+        <v>6.935273451414919</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.440915555543269</v>
+        <v>6.425912089245948</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.785971420896985</v>
+        <v>6.770350964716208</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.339575756947885</v>
+        <v>6.350637800206297</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>7.018597804113337</v>
+        <v>7.025353790327965</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6.582371102490175</v>
+        <v>6.601056889422228</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6.954963101998346</v>
+        <v>6.948197003050374</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>6.658505575290582</v>
+        <v>6.645774820050454</v>
       </c>
     </row>
     <row r="31">
